--- a/PETER NDUNGU.xlsx
+++ b/PETER NDUNGU.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="598" firstSheet="39" activeTab="42"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="598" firstSheet="36" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="JUNE" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,12 @@
     <sheet name="NOVEMBER 21" sheetId="42" r:id="rId42"/>
     <sheet name="DECEMBER 21" sheetId="43" r:id="rId43"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="176">
   <si>
     <t>PETER NDUNGU</t>
   </si>
@@ -582,11 +582,14 @@
   <si>
     <t>FOR THE MONTH OF DECEMBER 2021</t>
   </si>
+  <si>
+    <t>PAID ON 23/10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
@@ -805,7 +808,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -840,7 +843,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1620,7 +1623,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1861,7 +1864,10 @@
         <f>SUM(D5:D12)</f>
         <v>22000</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <f>SUM(E5:E12)</f>
+        <v>27800</v>
+      </c>
       <c r="F13" s="2">
         <f>SUM(F5:F12)</f>
         <v>27800</v>
@@ -1967,7 +1973,7 @@
       </c>
       <c r="G20" s="32">
         <f>FEBRUARY!I30</f>
-        <v>26.400000000001455</v>
+        <v>-750</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -2141,7 +2147,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>26066.400000000001</v>
+        <v>25290</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -2149,7 +2155,7 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>266.40000000000146</v>
+        <v>-510</v>
       </c>
       <c r="J30" s="24"/>
     </row>
@@ -2528,7 +2534,7 @@
       </c>
       <c r="G20" s="32">
         <f>MARCH!I30</f>
-        <v>266.40000000000146</v>
+        <v>-510</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -2702,7 +2708,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>26946.400000000001</v>
+        <v>26170</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -2710,7 +2716,7 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>746.40000000000146</v>
+        <v>-30</v>
       </c>
       <c r="J30" s="24"/>
     </row>
@@ -3086,7 +3092,7 @@
       </c>
       <c r="G20" s="32">
         <f>'APRIL '!I30</f>
-        <v>746.40000000000146</v>
+        <v>-30</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -3252,7 +3258,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>29726.400000000001</v>
+        <v>28950</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -3260,7 +3266,7 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>726.40000000000146</v>
+        <v>-50</v>
       </c>
       <c r="J30" s="24"/>
     </row>
@@ -3296,7 +3302,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3558,7 +3564,7 @@
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="28" t="s">
         <v>11</v>
@@ -3574,7 +3580,7 @@
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="30" t="s">
         <v>13</v>
@@ -3602,7 +3608,7 @@
       </c>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="31" t="s">
         <v>75</v>
@@ -3624,7 +3630,7 @@
       <c r="I19" s="31"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="31" t="s">
         <v>5</v>
@@ -3640,13 +3646,13 @@
       </c>
       <c r="G20" s="32">
         <f>'MAY '!I30</f>
-        <v>726.40000000000146</v>
+        <v>-50</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="31" t="s">
         <v>18</v>
@@ -3672,7 +3678,7 @@
       <c r="I21" s="31"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="35"/>
       <c r="C22" s="32"/>
@@ -3684,7 +3690,7 @@
       <c r="I22" s="31"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="30" t="s">
         <v>20</v>
@@ -3704,7 +3710,7 @@
       <c r="I23" s="30"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="36" t="s">
         <v>77</v>
@@ -3724,7 +3730,7 @@
       <c r="I24" s="31"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="36"/>
       <c r="C25" s="31"/>
@@ -3736,7 +3742,7 @@
       <c r="I25" s="31"/>
       <c r="J25" s="24"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="36"/>
       <c r="C26" s="31"/>
@@ -3748,7 +3754,7 @@
       <c r="I26" s="31"/>
       <c r="J26" s="24"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="36"/>
       <c r="C27" s="31"/>
@@ -3760,7 +3766,7 @@
       <c r="I27" s="31"/>
       <c r="J27" s="24"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="36"/>
       <c r="C28" s="31"/>
@@ -3772,7 +3778,7 @@
       <c r="I28" s="31"/>
       <c r="J28" s="24"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="35"/>
       <c r="C29" s="31"/>
@@ -3784,7 +3790,7 @@
       <c r="I29" s="31"/>
       <c r="J29" s="24"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="30" t="s">
         <v>22</v>
@@ -3806,7 +3812,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>29146.400000000001</v>
+        <v>28370</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -3814,9 +3820,15 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>-1853.5999999999985</v>
+        <v>-2630</v>
       </c>
       <c r="J30" s="24"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="22">
+        <f>G13+I30</f>
+        <v>4370</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
@@ -3850,7 +3862,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4198,7 +4210,7 @@
       </c>
       <c r="G20" s="32">
         <f>'JUNE '!I30</f>
-        <v>-1853.5999999999985</v>
+        <v>-2630</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -4364,7 +4376,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>36066.400000000001</v>
+        <v>35290</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -4372,9 +4384,18 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>3566.4000000000015</v>
-      </c>
-      <c r="J30" s="24"/>
+        <v>2790</v>
+      </c>
+      <c r="J30" s="33">
+        <f>G13+I30</f>
+        <v>7290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J31" s="22">
+        <f>E30-J30</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
@@ -4767,7 +4788,7 @@
       </c>
       <c r="G20" s="32">
         <f>'JULY  '!I30</f>
-        <v>3566.4000000000015</v>
+        <v>2790</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -4942,7 +4963,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>43486.400000000001</v>
+        <v>42710</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -4950,7 +4971,7 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>776.40000000000146</v>
+        <v>0</v>
       </c>
       <c r="J30" s="24"/>
       <c r="K30" s="22"/>
@@ -5335,7 +5356,7 @@
       </c>
       <c r="G20" s="32">
         <f>AUGUST19!I30</f>
-        <v>776.40000000000146</v>
+        <v>0</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -5502,7 +5523,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>25956.400000000001</v>
+        <v>25180</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -5510,7 +5531,7 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>-723.59999999999854</v>
+        <v>-1500</v>
       </c>
       <c r="J30" s="24"/>
       <c r="K30" s="22"/>
@@ -5899,7 +5920,7 @@
       </c>
       <c r="G20" s="32">
         <f>'SEPTEMBER 19'!I30</f>
-        <v>-723.59999999999854</v>
+        <v>-1500</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -6065,7 +6086,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>35156.400000000001</v>
+        <v>34380</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -6073,7 +6094,7 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>-723.59999999999854</v>
+        <v>-1500</v>
       </c>
       <c r="J30" s="24"/>
     </row>
@@ -6460,7 +6481,7 @@
       </c>
       <c r="G20" s="32">
         <f>'OCTOBER 19'!I30</f>
-        <v>-723.59999999999854</v>
+        <v>-1500</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -6626,7 +6647,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>28716.400000000001</v>
+        <v>27940</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -6634,7 +6655,7 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>-683.59999999999854</v>
+        <v>-1460</v>
       </c>
       <c r="J30" s="24"/>
     </row>
@@ -7020,7 +7041,7 @@
       </c>
       <c r="G20" s="32">
         <f>'NOVEMBER 19'!I30</f>
-        <v>-683.59999999999854</v>
+        <v>-1460</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -7186,7 +7207,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>28756.400000000001</v>
+        <v>27980</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -7194,7 +7215,7 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>-723.59999999999854</v>
+        <v>-1500</v>
       </c>
       <c r="J30" s="24"/>
     </row>
@@ -7750,7 +7771,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8099,7 +8120,7 @@
       </c>
       <c r="G20" s="32">
         <f>'DECEMBER 19'!I30</f>
-        <v>-723.59999999999854</v>
+        <v>-1500</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -8265,7 +8286,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>20716.400000000001</v>
+        <v>19940</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -8273,9 +8294,15 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>-8283.5999999999985</v>
+        <v>-9060</v>
       </c>
       <c r="J30" s="24"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J32" s="22">
+        <f>G13+I30</f>
+        <v>440</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
@@ -8665,7 +8692,7 @@
       </c>
       <c r="G20" s="32">
         <f>'JANUARY 20'!I30</f>
-        <v>-8283.5999999999985</v>
+        <v>-9060</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -8831,7 +8858,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>27596.400000000001</v>
+        <v>26820</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -8839,7 +8866,7 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>-8723.5999999999985</v>
+        <v>-9500</v>
       </c>
       <c r="J30" s="24"/>
     </row>
@@ -9231,7 +9258,7 @@
       </c>
       <c r="G20" s="32">
         <f>'FEBRUARY 20'!I30</f>
-        <v>-8723.5999999999985</v>
+        <v>-9500</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -9405,7 +9432,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>27716.400000000001</v>
+        <v>26940</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -9413,7 +9440,7 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>-1723.5999999999985</v>
+        <v>-2500</v>
       </c>
       <c r="J30" s="24"/>
     </row>
@@ -9447,10 +9474,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9726,7 +9753,7 @@
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="28" t="s">
         <v>11</v>
@@ -9742,6 +9769,588 @@
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
     </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="32">
+        <f>D13</f>
+        <v>32000</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="32">
+        <f>F13</f>
+        <v>25000</v>
+      </c>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="24"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="33">
+        <f>'MARCH 20'!E30</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="32">
+        <f>'MARCH 20'!I30</f>
+        <v>-2500</v>
+      </c>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="24"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="34">
+        <v>0.08</v>
+      </c>
+      <c r="D21" s="32">
+        <f>C19*C21</f>
+        <v>2560</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="34">
+        <v>0.08</v>
+      </c>
+      <c r="H21" s="32">
+        <f>G21*C19</f>
+        <v>2560</v>
+      </c>
+      <c r="I21" s="31"/>
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="24"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="24"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31">
+        <v>17000</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31">
+        <v>17000</v>
+      </c>
+      <c r="I24" s="31"/>
+      <c r="J24" s="24"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="24"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="24"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="24"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="24"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="24"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="24"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="39">
+        <f>C19+C20-D21</f>
+        <v>29440</v>
+      </c>
+      <c r="D30" s="39">
+        <f>SUM(D24:D29)</f>
+        <v>17000</v>
+      </c>
+      <c r="E30" s="39">
+        <f>C30-D30</f>
+        <v>12440</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="39">
+        <f>G19+G20-H21</f>
+        <v>19940</v>
+      </c>
+      <c r="H30" s="39">
+        <f>SUM(H24:H29)</f>
+        <v>17000</v>
+      </c>
+      <c r="I30" s="39">
+        <f>G30-H30</f>
+        <v>2940</v>
+      </c>
+      <c r="J30" s="24"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="22">
+        <f>G13+I30</f>
+        <v>12440</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="22">
+        <f>I30-E30</f>
+        <v>-9500</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="3">
+        <f>'APRIL 20'!G5:G9</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="3">
+        <f>C5+D5</f>
+        <v>10000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G5" s="3">
+        <f>E5-F5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="3">
+        <f>'APRIL 20'!G6:G10</f>
+        <v>4000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E6" s="3">
+        <f>C6+D6</f>
+        <v>11000</v>
+      </c>
+      <c r="F6">
+        <f>4000+4000+2000+1000</f>
+        <v>11000</v>
+      </c>
+      <c r="G6" s="3">
+        <f>E6-F6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="3">
+        <f>'APRIL 20'!G7:G11</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E7" s="3">
+        <f>C7+D7</f>
+        <v>7000</v>
+      </c>
+      <c r="F7" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G7" s="3">
+        <f>E7-F7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3">
+        <f>'APRIL 20'!G8:G12</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E8" s="3">
+        <f>C8+D8</f>
+        <v>7000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G8" s="3">
+        <f>E8-F8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3">
+        <f>'APRIL 20'!G9:G13</f>
+        <v>5500</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E9" s="3">
+        <f>C9+D9</f>
+        <v>13500</v>
+      </c>
+      <c r="F9" s="3">
+        <f>5000+1500</f>
+        <v>6500</v>
+      </c>
+      <c r="G9" s="3">
+        <f>E9-F9</f>
+        <v>7000</v>
+      </c>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="3">
+        <f>'APRIL 20'!G10:G14</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="3">
+        <f>'APRIL 20'!G11:G15</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <f>C11+D11</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
+        <f>E11-J11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3">
+        <f>'APRIL 20'!G12:G16</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3">
+        <f>SUM(C5:C12)</f>
+        <v>9500</v>
+      </c>
+      <c r="D13" s="2">
+        <f>SUM(D5:D12)</f>
+        <v>39000</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <f>SUM(F5:F12)</f>
+        <v>41500</v>
+      </c>
+      <c r="G13" s="2">
+        <f>SUM(G5:G12)</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+    </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="30" t="s">
@@ -9773,20 +10382,20 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="31" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C19" s="32">
         <f>D13</f>
-        <v>32000</v>
+        <v>39000</v>
       </c>
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G19" s="32">
         <f>F13</f>
-        <v>25000</v>
+        <v>41500</v>
       </c>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
@@ -9798,8 +10407,8 @@
         <v>5</v>
       </c>
       <c r="C20" s="33">
-        <f>'MARCH 20'!E30</f>
-        <v>0</v>
+        <f>'APRIL 20'!E30</f>
+        <v>12440</v>
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
@@ -9807,8 +10416,8 @@
         <v>5</v>
       </c>
       <c r="G20" s="32">
-        <f>'MARCH 20'!I30</f>
-        <v>-1723.5999999999985</v>
+        <f>'APRIL 20'!I30</f>
+        <v>2940</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -9824,7 +10433,7 @@
       </c>
       <c r="D21" s="32">
         <f>C19*C21</f>
-        <v>2560</v>
+        <v>3120</v>
       </c>
       <c r="E21" s="31"/>
       <c r="F21" s="31" t="s">
@@ -9835,7 +10444,7 @@
       </c>
       <c r="H21" s="32">
         <f>G21*C19</f>
-        <v>2560</v>
+        <v>3120</v>
       </c>
       <c r="I21" s="31"/>
       <c r="J21" s="24"/>
@@ -9875,19 +10484,19 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="36" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31">
-        <v>17000</v>
+        <v>37500</v>
       </c>
       <c r="E24" s="31"/>
       <c r="F24" s="36" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G24" s="31"/>
       <c r="H24" s="31">
-        <v>17000</v>
+        <v>37500</v>
       </c>
       <c r="I24" s="31"/>
       <c r="J24" s="24"/>
@@ -9959,582 +10568,6 @@
       </c>
       <c r="C30" s="39">
         <f>C19+C20-D21</f>
-        <v>29440</v>
-      </c>
-      <c r="D30" s="39">
-        <f>SUM(D24:D29)</f>
-        <v>17000</v>
-      </c>
-      <c r="E30" s="39">
-        <f>C30-D30</f>
-        <v>12440</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="39">
-        <f>G19+G20-H21</f>
-        <v>20716.400000000001</v>
-      </c>
-      <c r="H30" s="39">
-        <f>SUM(H24:H29)</f>
-        <v>17000</v>
-      </c>
-      <c r="I30" s="39">
-        <f>G30-H30</f>
-        <v>3716.4000000000015</v>
-      </c>
-      <c r="J30" s="24"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I34" s="22">
-        <f>I30-E30</f>
-        <v>-8723.5999999999985</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="3">
-        <f>'APRIL 20'!G5:G9</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>10000</v>
-      </c>
-      <c r="E5" s="3">
-        <f>C5+D5</f>
-        <v>10000</v>
-      </c>
-      <c r="F5" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G5" s="3">
-        <f>E5-F5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>2</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="3">
-        <f>'APRIL 20'!G6:G10</f>
-        <v>4000</v>
-      </c>
-      <c r="D6" s="3">
-        <v>7000</v>
-      </c>
-      <c r="E6" s="3">
-        <f>C6+D6</f>
-        <v>11000</v>
-      </c>
-      <c r="F6">
-        <f>4000+4000+2000+1000</f>
-        <v>11000</v>
-      </c>
-      <c r="G6" s="3">
-        <f>E6-F6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="3">
-        <f>'APRIL 20'!G7:G11</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>7000</v>
-      </c>
-      <c r="E7" s="3">
-        <f>C7+D7</f>
-        <v>7000</v>
-      </c>
-      <c r="F7" s="3">
-        <v>7000</v>
-      </c>
-      <c r="G7" s="3">
-        <f>E7-F7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3">
-        <f>'APRIL 20'!G8:G12</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>7000</v>
-      </c>
-      <c r="E8" s="3">
-        <f>C8+D8</f>
-        <v>7000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>7000</v>
-      </c>
-      <c r="G8" s="3">
-        <f>E8-F8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="3">
-        <f>'APRIL 20'!G9:G13</f>
-        <v>5500</v>
-      </c>
-      <c r="D9" s="3">
-        <v>8000</v>
-      </c>
-      <c r="E9" s="3">
-        <f>C9+D9</f>
-        <v>13500</v>
-      </c>
-      <c r="F9" s="3">
-        <f>5000+1500</f>
-        <v>6500</v>
-      </c>
-      <c r="G9" s="3">
-        <f>E9-F9</f>
-        <v>7000</v>
-      </c>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="3">
-        <f>'APRIL 20'!G10:G14</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="3">
-        <f>'APRIL 20'!G11:G15</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
-        <f>C11+D11</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3">
-        <f>E11-J11</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="20"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3">
-        <f>'APRIL 20'!G12:G16</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3">
-        <f>SUM(C5:C12)</f>
-        <v>9500</v>
-      </c>
-      <c r="D13" s="2">
-        <f>SUM(D5:D12)</f>
-        <v>39000</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2">
-        <f>SUM(F5:F12)</f>
-        <v>41500</v>
-      </c>
-      <c r="G13" s="2">
-        <f>SUM(G5:G12)</f>
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="24"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="32">
-        <f>D13</f>
-        <v>39000</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="32">
-        <f>F13</f>
-        <v>41500</v>
-      </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="24"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="33">
-        <f>'APRIL 20'!E30</f>
-        <v>12440</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="32">
-        <f>'APRIL 20'!I30</f>
-        <v>3716.4000000000015</v>
-      </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="24"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="34">
-        <v>0.08</v>
-      </c>
-      <c r="D21" s="32">
-        <f>C19*C21</f>
-        <v>3120</v>
-      </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="34">
-        <v>0.08</v>
-      </c>
-      <c r="H21" s="32">
-        <f>G21*C19</f>
-        <v>3120</v>
-      </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="24"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="24"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="24"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31">
-        <v>37500</v>
-      </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31">
-        <v>37500</v>
-      </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="24"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="24"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="24"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="24"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="24"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="24"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="39">
-        <f>C19+C20-D21</f>
         <v>48320</v>
       </c>
       <c r="D30" s="39">
@@ -10550,7 +10583,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>42096.4</v>
+        <v>41320</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -10558,9 +10591,21 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>4596.4000000000015</v>
+        <v>3820</v>
       </c>
       <c r="J30" s="24"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J31" s="22">
+        <f>G13+I30</f>
+        <v>10820</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J32" s="22">
+        <f>E30-J31</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
@@ -10594,7 +10639,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10965,7 +11010,7 @@
       </c>
       <c r="G20" s="32">
         <f>'MAY 20'!I30</f>
-        <v>4596.4000000000015</v>
+        <v>3820</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -11133,7 +11178,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>46916.4</v>
+        <v>46140</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -11141,9 +11186,15 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>5016.4000000000015</v>
+        <v>4240</v>
       </c>
       <c r="J30" s="24"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J31" s="22">
+        <f>G13+I30</f>
+        <v>11240</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
@@ -11174,10 +11225,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11462,7 +11513,7 @@
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="28" t="s">
         <v>11</v>
@@ -11478,7 +11529,7 @@
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="30" t="s">
         <v>13</v>
@@ -11506,7 +11557,7 @@
       </c>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="31" t="s">
         <v>31</v>
@@ -11528,7 +11579,7 @@
       <c r="I19" s="31"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="31" t="s">
         <v>5</v>
@@ -11544,13 +11595,13 @@
       </c>
       <c r="G20" s="32">
         <f>'JUNE 20'!I30</f>
-        <v>5016.4000000000015</v>
+        <v>4240</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="31" t="s">
         <v>18</v>
@@ -11576,7 +11627,7 @@
       <c r="I21" s="31"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="35"/>
       <c r="C22" s="32"/>
@@ -11588,7 +11639,7 @@
       <c r="I22" s="31"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="30" t="s">
         <v>20</v>
@@ -11608,7 +11659,7 @@
       <c r="I23" s="30"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="36" t="s">
         <v>120</v>
@@ -11628,7 +11679,7 @@
       <c r="I24" s="31"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="36" t="s">
         <v>121</v>
@@ -11648,7 +11699,7 @@
       <c r="I25" s="31"/>
       <c r="J25" s="24"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="36"/>
       <c r="C26" s="31"/>
@@ -11659,8 +11710,12 @@
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
       <c r="J26" s="24"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="22">
+        <f>G13+I30</f>
+        <v>11724</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="36"/>
       <c r="C27" s="31"/>
@@ -11672,7 +11727,7 @@
       <c r="I27" s="31"/>
       <c r="J27" s="24"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="36"/>
       <c r="C28" s="31"/>
@@ -11684,7 +11739,7 @@
       <c r="I28" s="31"/>
       <c r="J28" s="24"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="35"/>
       <c r="C29" s="31"/>
@@ -11696,7 +11751,7 @@
       <c r="I29" s="31"/>
       <c r="J29" s="24"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="30" t="s">
         <v>22</v>
@@ -11718,7 +11773,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>47336.4</v>
+        <v>46560</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -11726,7 +11781,7 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>5500.4000000000015</v>
+        <v>4724</v>
       </c>
       <c r="J30" s="24"/>
     </row>
@@ -11753,7 +11808,7 @@
       </c>
       <c r="I36" s="22">
         <f>I30-E30</f>
-        <v>-6223.5999999999985</v>
+        <v>-7000</v>
       </c>
     </row>
   </sheetData>
@@ -12129,7 +12184,7 @@
       </c>
       <c r="G20" s="32">
         <f>'JULY 20'!I30</f>
-        <v>5500.4000000000015</v>
+        <v>4724</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -12303,7 +12358,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>38380.400000000001</v>
+        <v>37604</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -12311,7 +12366,7 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>1880.4000000000015</v>
+        <v>1104</v>
       </c>
       <c r="J30" s="24"/>
     </row>
@@ -12338,7 +12393,7 @@
       </c>
       <c r="I36" s="22">
         <f>I30-E30</f>
-        <v>-9223.5999999999985</v>
+        <v>-10000</v>
       </c>
     </row>
   </sheetData>
@@ -12704,7 +12759,7 @@
       </c>
       <c r="G20" s="32">
         <f>'AUGUST 20'!I30</f>
-        <v>1880.4000000000015</v>
+        <v>1104</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -12870,7 +12925,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>24880.400000000001</v>
+        <v>24104</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -12878,7 +12933,7 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>880.40000000000146</v>
+        <v>104</v>
       </c>
       <c r="J30" s="24"/>
     </row>
@@ -13268,7 +13323,7 @@
       </c>
       <c r="G20" s="32">
         <f>'SEPTEMBER 20'!I30</f>
-        <v>880.40000000000146</v>
+        <v>104</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -13458,7 +13513,7 @@
       </c>
       <c r="G31" s="39">
         <f>G19+G20-H22</f>
-        <v>30720.400000000001</v>
+        <v>29944</v>
       </c>
       <c r="H31" s="39">
         <f>SUM(H25:H30)</f>
@@ -13466,7 +13521,7 @@
       </c>
       <c r="I31" s="39">
         <f>G31-H31</f>
-        <v>320.40000000000146</v>
+        <v>-456</v>
       </c>
       <c r="J31" s="24"/>
     </row>
@@ -13504,7 +13559,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13813,10 +13868,7 @@
       <c r="F20" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="13">
-        <f>JULY!I30</f>
-        <v>776.40000000000146</v>
-      </c>
+      <c r="G20" s="13"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
     </row>
@@ -13961,7 +14013,7 @@
       </c>
       <c r="G30" s="19">
         <f>G19+G20</f>
-        <v>28776.400000000001</v>
+        <v>28000</v>
       </c>
       <c r="H30" s="19">
         <f>SUM(H21:H29)</f>
@@ -13969,7 +14021,7 @@
       </c>
       <c r="I30" s="13">
         <f>G30-H30</f>
-        <v>36.400000000001455</v>
+        <v>-740</v>
       </c>
       <c r="J30" s="22"/>
     </row>
@@ -14006,7 +14058,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J37"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14362,7 +14414,7 @@
       </c>
       <c r="G20" s="32">
         <f>'OCTOBER 20'!I31</f>
-        <v>320.40000000000146</v>
+        <v>-456</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -14528,7 +14580,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>22760.400000000001</v>
+        <v>21984</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -14536,7 +14588,7 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>0.40000000000145519</v>
+        <v>-776</v>
       </c>
       <c r="J30" s="24"/>
     </row>
@@ -14941,7 +14993,7 @@
       </c>
       <c r="G20" s="32">
         <f>NOVEMBER20!I30</f>
-        <v>0.40000000000145519</v>
+        <v>-776</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -15125,7 +15177,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>42880.4</v>
+        <v>42104</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -15133,7 +15185,7 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>0.40000000000145519</v>
+        <v>-776</v>
       </c>
       <c r="J30" s="24"/>
     </row>
@@ -15543,7 +15595,7 @@
       </c>
       <c r="G20" s="32">
         <f>'DECEMBER 20'!I30</f>
-        <v>0.40000000000145519</v>
+        <v>-776</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -15713,7 +15765,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>28880.400000000001</v>
+        <v>28104</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -15721,7 +15773,7 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>-24.599999999998545</v>
+        <v>-801</v>
       </c>
       <c r="J30" s="24"/>
     </row>
@@ -16118,7 +16170,7 @@
       </c>
       <c r="G20" s="32">
         <f>'JANUARY 21'!I30</f>
-        <v>-24.599999999998545</v>
+        <v>-801</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -16282,7 +16334,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>29415.4</v>
+        <v>28639</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -16290,7 +16342,7 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>0.40000000000145519</v>
+        <v>-776</v>
       </c>
       <c r="J30" s="24"/>
     </row>
@@ -16328,7 +16380,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J36"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16757,7 +16809,7 @@
       </c>
       <c r="G20" s="32">
         <f>'FEBRUARY 21'!I30</f>
-        <v>0.40000000000145519</v>
+        <v>-776</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -16918,6 +16970,10 @@
       <c r="G29" s="31"/>
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
+      <c r="K29" s="22">
+        <f>I13+I30</f>
+        <v>9249</v>
+      </c>
       <c r="L29" s="24"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -16942,7 +16998,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>58320.4</v>
+        <v>57544</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -16950,7 +17006,7 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>25.400000000001455</v>
+        <v>-751</v>
       </c>
       <c r="L30" s="24"/>
     </row>
@@ -16985,10 +17041,10 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17323,7 +17379,7 @@
       <c r="H16" s="27"/>
       <c r="I16" s="24"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="28" t="s">
         <v>11</v>
@@ -17338,7 +17394,7 @@
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="30" t="s">
         <v>13</v>
@@ -17365,7 +17421,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="31" t="s">
         <v>66</v>
@@ -17386,7 +17442,7 @@
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="31" t="s">
         <v>5</v>
@@ -17402,12 +17458,12 @@
       </c>
       <c r="G20" s="32">
         <f>'MARCH 21'!I30</f>
-        <v>25.400000000001455</v>
+        <v>-751</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="31" t="s">
         <v>18</v>
@@ -17432,7 +17488,7 @@
       </c>
       <c r="I21" s="31"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="35" t="s">
         <v>151</v>
@@ -17448,7 +17504,7 @@
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="30" t="s">
         <v>20</v>
@@ -17467,7 +17523,7 @@
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="36" t="s">
         <v>157</v>
@@ -17486,7 +17542,7 @@
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="36"/>
       <c r="C25" s="31"/>
@@ -17497,7 +17553,7 @@
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="36"/>
       <c r="C26" s="31"/>
@@ -17508,7 +17564,7 @@
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="36"/>
       <c r="C27" s="31"/>
@@ -17519,7 +17575,7 @@
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="36"/>
       <c r="C28" s="31"/>
@@ -17530,7 +17586,7 @@
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="35"/>
       <c r="C29" s="31"/>
@@ -17541,7 +17597,7 @@
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="30" t="s">
         <v>22</v>
@@ -17563,7 +17619,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>24905.4</v>
+        <v>24129</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -17571,7 +17627,13 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>-10974.599999999999</v>
+        <v>-11751</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J31" s="22">
+        <f>I13+I30</f>
+        <v>9249</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -17604,10 +17666,10 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17942,7 +18004,7 @@
       <c r="H16" s="27"/>
       <c r="I16" s="24"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="28" t="s">
         <v>11</v>
@@ -17957,7 +18019,7 @@
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="30" t="s">
         <v>13</v>
@@ -17984,7 +18046,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="31" t="s">
         <v>71</v>
@@ -18005,7 +18067,7 @@
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="31" t="s">
         <v>5</v>
@@ -18021,12 +18083,12 @@
       </c>
       <c r="G20" s="32">
         <f>APRIL21!I30</f>
-        <v>-10974.599999999999</v>
+        <v>-11751</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="31" t="s">
         <v>18</v>
@@ -18051,7 +18113,7 @@
       </c>
       <c r="I21" s="31"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="35" t="s">
         <v>151</v>
@@ -18067,7 +18129,7 @@
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="30" t="s">
         <v>20</v>
@@ -18086,7 +18148,7 @@
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="36" t="s">
         <v>159</v>
@@ -18105,7 +18167,7 @@
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="36"/>
       <c r="C25" s="31"/>
@@ -18116,7 +18178,7 @@
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="36"/>
       <c r="C26" s="31"/>
@@ -18127,7 +18189,7 @@
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="36"/>
       <c r="C27" s="31"/>
@@ -18138,7 +18200,7 @@
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="36"/>
       <c r="C28" s="31"/>
@@ -18149,7 +18211,7 @@
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="35"/>
       <c r="C29" s="31"/>
@@ -18160,7 +18222,7 @@
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="30" t="s">
         <v>22</v>
@@ -18182,7 +18244,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>24905.4</v>
+        <v>24129</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -18190,7 +18252,11 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>-10974.599999999999</v>
+        <v>-11751</v>
+      </c>
+      <c r="J30" s="22">
+        <f>I13+I30</f>
+        <v>9249</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -18643,7 +18709,7 @@
       </c>
       <c r="G20" s="32">
         <f>'MAY 21'!I30</f>
-        <v>-10974.599999999999</v>
+        <v>-11751</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -18804,7 +18870,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>24905.4</v>
+        <v>24129</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -18812,7 +18878,7 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>-10974.599999999999</v>
+        <v>-11751</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -18848,7 +18914,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19266,7 +19332,7 @@
       </c>
       <c r="G20" s="32">
         <f>'JUNE 21'!I30</f>
-        <v>-10974.599999999999</v>
+        <v>-11751</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -19412,6 +19478,10 @@
       <c r="G29" s="31"/>
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
+      <c r="J29" s="22">
+        <f>I13+I30</f>
+        <v>9249</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
@@ -19435,7 +19505,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>27905.4</v>
+        <v>27129</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -19443,7 +19513,7 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>-7974.5999999999985</v>
+        <v>-8751</v>
       </c>
       <c r="J30" s="22"/>
     </row>
@@ -19483,7 +19553,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19892,7 +19962,10 @@
       <c r="B20" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="33"/>
+      <c r="C20" s="33">
+        <f>'JULY 21'!E30</f>
+        <v>9249</v>
+      </c>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
       <c r="F20" s="31" t="s">
@@ -19900,7 +19973,7 @@
       </c>
       <c r="G20" s="32">
         <f>'JULY 21'!I30</f>
-        <v>-7974.5999999999985</v>
+        <v>-8751</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -20046,7 +20119,7 @@
       </c>
       <c r="C30" s="39">
         <f>C19+C20+C22-D21</f>
-        <v>35880</v>
+        <v>45129</v>
       </c>
       <c r="D30" s="39">
         <f>SUM(D24:D29)</f>
@@ -20054,14 +20127,14 @@
       </c>
       <c r="E30" s="39">
         <f>C30-D30</f>
-        <v>0</v>
+        <v>9249</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>25905.4</v>
+        <v>25129</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -20069,9 +20142,12 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>-9974.5999999999985</v>
-      </c>
-      <c r="J30" s="22"/>
+        <v>-10751</v>
+      </c>
+      <c r="J30" s="22">
+        <f>I13+I30</f>
+        <v>9249</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J31" s="22"/>
@@ -20109,7 +20185,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20239,8 +20315,8 @@
         <v>7000</v>
       </c>
       <c r="G8" s="3">
-        <f>E8-J8</f>
-        <v>7000</v>
+        <f>E8-F8</f>
+        <v>0</v>
       </c>
       <c r="J8" s="20"/>
     </row>
@@ -20337,7 +20413,7 @@
       </c>
       <c r="G13" s="3">
         <f>SUM(G5:G12)</f>
-        <v>7300</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -20431,7 +20507,7 @@
       </c>
       <c r="G20" s="13">
         <f>AUGUST!I30</f>
-        <v>36.400000000001455</v>
+        <v>-740</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -20577,7 +20653,7 @@
       </c>
       <c r="G30" s="19">
         <f>G19+G20</f>
-        <v>13736.400000000001</v>
+        <v>12960</v>
       </c>
       <c r="H30" s="19">
         <f>SUM(H21:H29)</f>
@@ -20585,7 +20661,7 @@
       </c>
       <c r="I30" s="13">
         <f>G30-H30</f>
-        <v>446.40000000000146</v>
+        <v>-330</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -20621,7 +20697,7 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21029,7 +21105,7 @@
       </c>
       <c r="C20" s="33">
         <f>'AUGUST 21'!E30</f>
-        <v>0</v>
+        <v>9249</v>
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
@@ -21038,7 +21114,7 @@
       </c>
       <c r="G20" s="32">
         <f>'AUGUST 21'!I30</f>
-        <v>-9974.5999999999985</v>
+        <v>-10751</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -21184,7 +21260,7 @@
       </c>
       <c r="C30" s="39">
         <f>C19+C20+C22-D21</f>
-        <v>35880</v>
+        <v>45129</v>
       </c>
       <c r="D30" s="39">
         <f>SUM(D24:D29)</f>
@@ -21192,14 +21268,14 @@
       </c>
       <c r="E30" s="39">
         <f>C30-D30</f>
-        <v>0</v>
+        <v>9249</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>27405.4</v>
+        <v>26629</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -21207,7 +21283,7 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>-8474.5999999999985</v>
+        <v>-9251</v>
       </c>
       <c r="J30" s="22"/>
       <c r="L30">
@@ -21216,7 +21292,10 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J31" s="22"/>
+      <c r="J31" s="22">
+        <f>I13+I30</f>
+        <v>9249</v>
+      </c>
       <c r="Q31">
         <f>31-14</f>
         <v>17</v>
@@ -21280,10 +21359,10 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21615,7 +21694,7 @@
       <c r="H16" s="27"/>
       <c r="I16" s="24"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="28" t="s">
         <v>11</v>
@@ -21630,7 +21709,7 @@
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="30" t="s">
         <v>13</v>
@@ -21657,7 +21736,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="31" t="s">
         <v>130</v>
@@ -21678,14 +21757,14 @@
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="33">
         <f>'SEPTEMBER 21'!E30</f>
-        <v>0</v>
+        <v>9249</v>
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
@@ -21694,12 +21773,12 @@
       </c>
       <c r="G20" s="32">
         <f>'SEPTEMBER 21'!I30</f>
-        <v>-8474.5999999999985</v>
+        <v>-9251</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="31" t="s">
         <v>18</v>
@@ -21724,7 +21803,7 @@
       </c>
       <c r="I21" s="31"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="35" t="s">
         <v>151</v>
@@ -21740,7 +21819,7 @@
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="30" t="s">
         <v>20</v>
@@ -21759,7 +21838,7 @@
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="36" t="s">
         <v>170</v>
@@ -21778,20 +21857,26 @@
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
-      <c r="B25" s="36"/>
+      <c r="B25" s="36" t="s">
+        <v>175</v>
+      </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31">
         <v>5000</v>
       </c>
       <c r="E25" s="31"/>
-      <c r="F25" s="36"/>
+      <c r="F25" s="36" t="s">
+        <v>175</v>
+      </c>
       <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
+      <c r="H25" s="31">
+        <v>5000</v>
+      </c>
       <c r="I25" s="31"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="36"/>
       <c r="C26" s="31"/>
@@ -21802,7 +21887,7 @@
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="36"/>
       <c r="C27" s="31"/>
@@ -21813,7 +21898,7 @@
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="36"/>
       <c r="C28" s="31"/>
@@ -21824,7 +21909,7 @@
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="35"/>
       <c r="C29" s="31"/>
@@ -21834,15 +21919,19 @@
       <c r="G29" s="31"/>
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="22">
+        <f>I13+I30</f>
+        <v>11609</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="39">
         <f>C19+C20+C22-D21</f>
-        <v>35880</v>
+        <v>45129</v>
       </c>
       <c r="D30" s="39">
         <f>SUM(D24:D29)</f>
@@ -21850,22 +21939,22 @@
       </c>
       <c r="E30" s="39">
         <f>C30-D30</f>
-        <v>2360</v>
+        <v>11609</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>17405.400000000001</v>
+        <v>16629</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
-        <v>28520</v>
+        <v>33520</v>
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>-11114.599999999999</v>
+        <v>-16891</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -21898,10 +21987,10 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22236,7 +22325,7 @@
       <c r="H16" s="27"/>
       <c r="I16" s="24"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="28" t="s">
         <v>11</v>
@@ -22251,7 +22340,7 @@
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="30" t="s">
         <v>13</v>
@@ -22278,7 +22367,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="31" t="s">
         <v>46</v>
@@ -22299,14 +22388,14 @@
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="33">
         <f>'OCTOBER 21'!E30</f>
-        <v>2360</v>
+        <v>11609</v>
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
@@ -22315,12 +22404,12 @@
       </c>
       <c r="G20" s="32">
         <f>'OCTOBER 21'!I30</f>
-        <v>-11114.599999999999</v>
+        <v>-16891</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="31" t="s">
         <v>18</v>
@@ -22345,7 +22434,7 @@
       </c>
       <c r="I21" s="31"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="35" t="s">
         <v>151</v>
@@ -22361,7 +22450,7 @@
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="30" t="s">
         <v>20</v>
@@ -22380,7 +22469,7 @@
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="36"/>
       <c r="C24" s="41"/>
@@ -22391,7 +22480,7 @@
       <c r="H24" s="31"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="36" t="s">
         <v>172</v>
@@ -22410,7 +22499,7 @@
       </c>
       <c r="I25" s="31"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="36" t="s">
         <v>50</v>
@@ -22425,7 +22514,7 @@
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="36" t="s">
         <v>173</v>
@@ -22444,7 +22533,7 @@
       </c>
       <c r="I27" s="31"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="36"/>
       <c r="C28" s="31"/>
@@ -22455,7 +22544,7 @@
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="35"/>
       <c r="C29" s="31"/>
@@ -22466,14 +22555,14 @@
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="39">
         <f>C19+C20+C22-D21</f>
-        <v>38240</v>
+        <v>47489</v>
       </c>
       <c r="D30" s="39">
         <f>SUM(D24:D29)</f>
@@ -22481,14 +22570,14 @@
       </c>
       <c r="E30" s="39">
         <f>C30-D30</f>
-        <v>0</v>
+        <v>9249</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>26765.4</v>
+        <v>20989</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -22496,7 +22585,11 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>-3474.5999999999985</v>
+        <v>-9251</v>
+      </c>
+      <c r="J30" s="22">
+        <f>I13+I30</f>
+        <v>17249</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -22529,15 +22622,16 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -22617,11 +22711,11 @@
         <v>10000</v>
       </c>
       <c r="H5" s="3">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" ref="I5:I10" si="0">G5-H5</f>
-        <v>9000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -22647,10 +22741,12 @@
         <f t="shared" ref="G6:G11" si="1">D6+E6+C6+F6</f>
         <v>7000</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <v>7000</v>
+      </c>
       <c r="I6" s="3">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -22676,10 +22772,12 @@
         <f t="shared" si="1"/>
         <v>7000</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <v>7000</v>
+      </c>
       <c r="I7" s="3">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -22759,10 +22857,12 @@
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3">
+        <v>12000</v>
+      </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -22833,11 +22933,11 @@
       </c>
       <c r="H13" s="2">
         <f>SUM(H5:H12)</f>
-        <v>19000</v>
+        <v>54000</v>
       </c>
       <c r="I13" s="2">
         <f>SUM(I5:I12)</f>
-        <v>46500</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -22861,7 +22961,7 @@
       <c r="H16" s="27"/>
       <c r="I16" s="24"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="28" t="s">
         <v>11</v>
@@ -22876,7 +22976,7 @@
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="30" t="s">
         <v>13</v>
@@ -22903,7 +23003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="31" t="s">
         <v>97</v>
@@ -22919,19 +23019,23 @@
       </c>
       <c r="G19" s="32">
         <f>H13</f>
-        <v>19000</v>
+        <v>54000</v>
       </c>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <f>9000</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="33">
         <f>'NOVEMBER 21'!E30</f>
-        <v>0</v>
+        <v>9249</v>
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
@@ -22940,12 +23044,15 @@
       </c>
       <c r="G20" s="32">
         <f>'NOVEMBER 21'!I30</f>
-        <v>-3474.5999999999985</v>
+        <v>-9251</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="31" t="s">
         <v>18</v>
@@ -22969,8 +23076,16 @@
         <v>3120</v>
       </c>
       <c r="I21" s="31"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f>K19+K20</f>
+        <v>17000</v>
+      </c>
+      <c r="M21" s="22">
+        <f>C19</f>
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="35" t="s">
         <v>151</v>
@@ -22985,8 +23100,15 @@
       <c r="G22" s="32"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>6880</v>
+      </c>
+      <c r="M22" s="22">
+        <f>D21</f>
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="30" t="s">
         <v>20</v>
@@ -23004,8 +23126,16 @@
       </c>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <f>K21+K22</f>
+        <v>23880</v>
+      </c>
+      <c r="M23" s="22">
+        <f>M21-M22</f>
+        <v>35880</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="36"/>
       <c r="C24" s="41"/>
@@ -23013,21 +23143,32 @@
       <c r="E24" s="31"/>
       <c r="F24" s="36"/>
       <c r="G24" s="41"/>
-      <c r="H24" s="31"/>
+      <c r="H24" s="31">
+        <v>29000</v>
+      </c>
       <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="36"/>
       <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+      <c r="D25" s="31">
+        <v>29000</v>
+      </c>
       <c r="E25" s="31"/>
       <c r="F25" s="36"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M25" s="22">
+        <f>M23-M24</f>
+        <v>6880</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="36"/>
       <c r="C26" s="31"/>
@@ -23038,7 +23179,7 @@
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="36"/>
       <c r="C27" s="31"/>
@@ -23049,7 +23190,7 @@
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="36"/>
       <c r="C28" s="31"/>
@@ -23060,7 +23201,7 @@
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="35"/>
       <c r="C29" s="31"/>
@@ -23070,41 +23211,45 @@
       <c r="G29" s="31"/>
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K29" s="22">
+        <f>E30+K20</f>
+        <v>24129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="39">
         <f>C19+C20+C22-D21</f>
-        <v>35880</v>
+        <v>45129</v>
       </c>
       <c r="D30" s="39">
         <f>SUM(D24:D29)</f>
-        <v>0</v>
+        <v>29000</v>
       </c>
       <c r="E30" s="39">
         <f>C30-D30</f>
-        <v>35880</v>
+        <v>16129</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>12405.400000000001</v>
+        <v>41629</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
-        <v>0</v>
+        <v>29000</v>
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>12405.400000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12629</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>37</v>
       </c>
@@ -23115,7 +23260,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J35" s="22">
+        <f>E30-I30</f>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>85</v>
       </c>
@@ -23473,7 +23624,7 @@
       </c>
       <c r="G20" s="13">
         <f>SEP!I30</f>
-        <v>446.40000000000146</v>
+        <v>-330</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -23619,7 +23770,7 @@
       </c>
       <c r="G30" s="19">
         <f>G19+G20</f>
-        <v>29446.400000000001</v>
+        <v>28670</v>
       </c>
       <c r="H30" s="19">
         <f>SUM(H21:H29)</f>
@@ -23627,7 +23778,7 @@
       </c>
       <c r="I30" s="13">
         <f>G30-H30</f>
-        <v>-1433.5999999999985</v>
+        <v>-2210</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -23663,7 +23814,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23926,7 +24077,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
         <v>11</v>
       </c>
@@ -23937,7 +24088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="30" t="s">
         <v>13</v>
       </c>
@@ -23963,7 +24114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="31" t="s">
         <v>46</v>
       </c>
@@ -23983,7 +24134,7 @@
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="31" t="s">
         <v>5</v>
       </c>
@@ -23998,12 +24149,12 @@
       </c>
       <c r="G20" s="32">
         <f>OCTOBER!I30</f>
-        <v>-1433.5999999999985</v>
+        <v>-2210</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
         <v>18</v>
       </c>
@@ -24027,7 +24178,7 @@
       </c>
       <c r="I21" s="31"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="35"/>
       <c r="C22" s="32"/>
       <c r="D22" s="31"/>
@@ -24037,7 +24188,7 @@
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="30" t="s">
         <v>20</v>
       </c>
@@ -24055,7 +24206,7 @@
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="36">
         <v>43416</v>
       </c>
@@ -24073,7 +24224,7 @@
       </c>
       <c r="I24" s="31"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="36"/>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
@@ -24083,7 +24234,7 @@
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="36"/>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
@@ -24093,7 +24244,7 @@
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="36"/>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
@@ -24103,7 +24254,7 @@
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="36"/>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
@@ -24113,7 +24264,7 @@
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="35"/>
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>
@@ -24123,7 +24274,7 @@
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
         <v>22</v>
       </c>
@@ -24144,7 +24295,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20</f>
-        <v>29566.400000000001</v>
+        <v>28790</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H21:H29)</f>
@@ -24152,7 +24303,13 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>-1513.5999999999985</v>
+        <v>-2290</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J32" s="33">
+        <f>G13+I30</f>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -24188,7 +24345,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24460,7 +24617,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
         <v>11</v>
       </c>
@@ -24471,7 +24628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="30" t="s">
         <v>13</v>
       </c>
@@ -24497,7 +24654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="31" t="s">
         <v>49</v>
       </c>
@@ -24517,7 +24674,7 @@
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="31" t="s">
         <v>5</v>
       </c>
@@ -24532,12 +24689,12 @@
       </c>
       <c r="G20" s="32">
         <f>NOVEMBER!I30</f>
-        <v>-1513.5999999999985</v>
+        <v>-2290</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
         <v>18</v>
       </c>
@@ -24561,7 +24718,7 @@
       </c>
       <c r="I21" s="31"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="35"/>
       <c r="C22" s="32"/>
       <c r="D22" s="31"/>
@@ -24571,7 +24728,7 @@
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="30" t="s">
         <v>20</v>
       </c>
@@ -24589,7 +24746,7 @@
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="36">
         <v>43447</v>
       </c>
@@ -24607,7 +24764,7 @@
       </c>
       <c r="I24" s="31"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="36" t="s">
         <v>52</v>
       </c>
@@ -24625,7 +24782,7 @@
       </c>
       <c r="I25" s="31"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="36"/>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
@@ -24635,7 +24792,7 @@
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="36"/>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
@@ -24645,7 +24802,7 @@
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="36"/>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
@@ -24655,7 +24812,7 @@
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="35"/>
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>
@@ -24665,7 +24822,7 @@
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
         <v>22</v>
       </c>
@@ -24686,7 +24843,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>34866.400000000001</v>
+        <v>34090</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -24694,7 +24851,13 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>-2133.5999999999985</v>
+        <v>-2910</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="33">
+        <f>G13+I30</f>
+        <v>-1110</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -24730,7 +24893,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25074,7 +25237,7 @@
       </c>
       <c r="G20" s="32">
         <f>DECEMBER!I30</f>
-        <v>-2133.5999999999985</v>
+        <v>-2910</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -25228,7 +25391,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>31746.400000000001</v>
+        <v>30970</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -25236,10 +25399,10 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>-3753.5999999999985</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+        <v>-4530</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="24" t="s">
         <v>37</v>
       </c>
@@ -25249,8 +25412,12 @@
       <c r="G34" s="24" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I34" s="33">
+        <f>I30+G13</f>
+        <v>-730</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="24" t="s">
         <v>38</v>
       </c>
@@ -25272,7 +25439,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25624,7 +25791,7 @@
       </c>
       <c r="G20" s="32">
         <f>JANUARY!I30</f>
-        <v>-3753.5999999999985</v>
+        <v>-4530</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -25790,7 +25957,7 @@
       </c>
       <c r="G30" s="39">
         <f>G19+G20-H21</f>
-        <v>30126.400000000001</v>
+        <v>29350</v>
       </c>
       <c r="H30" s="39">
         <f>SUM(H24:H29)</f>
@@ -25798,9 +25965,15 @@
       </c>
       <c r="I30" s="39">
         <f>G30-H30</f>
-        <v>26.400000000001455</v>
+        <v>-750</v>
       </c>
       <c r="J30" s="24"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J32" s="22">
+        <f>G13+I30</f>
+        <v>5050</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
